--- a/output/table/table1.xlsx
+++ b/output/table/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\WD-Early-Warning-Food-Insecurity\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681843E0-9A95-4ABD-B65C-6C3A65BEAD2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C2F70-ABCC-4E99-A9C3-BD6946B46B1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{766D3772-C555-4403-8359-ED44F90AADC2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>FS_year</t>
   </si>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +211,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -238,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,11 +260,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6DADC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6DADC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -290,20 +308,36 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,11 +1036,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF8C5AC-03D8-41F3-A719-2E252C9B2ABE}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
@@ -1236,19 +1273,19 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>122.77079999999999</v>
+        <v>23.76042</v>
       </c>
       <c r="D6" s="5">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
-        <v>13.498740400000001</v>
+        <v>8.1373409999999993</v>
       </c>
       <c r="F6" s="5">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5">
         <v>2013</v>
@@ -1257,19 +1294,19 @@
         <v>26</v>
       </c>
       <c r="J6" s="5">
-        <v>123.64709999999999</v>
+        <v>24.299019999999999</v>
       </c>
       <c r="K6" s="5">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="L6" s="5">
-        <v>10.7186565</v>
+        <v>6.7498439000000001</v>
       </c>
       <c r="M6" s="5">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5">
-        <v>150</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1280,19 +1317,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="5">
-        <v>970.60440000000006</v>
+        <v>2.0386920000000002</v>
       </c>
       <c r="D7" s="5">
-        <v>942.96251572000006</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>174.78012720000001</v>
+        <v>9.6606558000000007</v>
       </c>
       <c r="F7" s="5">
-        <v>554.70403679000003</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>1681.6676629999999</v>
+        <v>75.971101599999997</v>
       </c>
       <c r="H7" s="5">
         <v>2013</v>
@@ -1301,19 +1338,19 @@
         <v>19</v>
       </c>
       <c r="J7" s="5">
-        <v>943.19179999999994</v>
+        <v>1.1053489999999999</v>
       </c>
       <c r="K7" s="5">
-        <v>888.15042192999999</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>173.7311349</v>
+        <v>7.3369925</v>
       </c>
       <c r="M7" s="5">
-        <v>647.19569137999997</v>
+        <v>0</v>
       </c>
       <c r="N7" s="5">
-        <v>1681.536928</v>
+        <v>69.151984799999994</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1977,1183 +2014,1168 @@
       <c r="B26" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2.7538110000000001E-5</v>
+      </c>
+      <c r="F30" s="16">
+        <v>-1.8276230000000001E-2</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.3456514</v>
+      </c>
+      <c r="H30" s="16">
+        <v>-0.82752614999999996</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1.0495977000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="C33" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.46362890000000001</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.49468085000000001</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.28720899999999999</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="C34" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45.015630000000002</v>
+      </c>
+      <c r="F34" s="10">
+        <v>41</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10.248783599999999</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
         <v>4</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="C35" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11">
+        <v>8.0577330000000007</v>
+      </c>
+      <c r="F35" s="10">
+        <v>6.5590624999999996</v>
+      </c>
+      <c r="G35" s="10">
+        <v>5.7724744000000001</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.37692308000000002</v>
+      </c>
+      <c r="I35" s="10">
+        <v>37.320000200000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="C36" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="11">
+        <v>8.3656520000000008</v>
+      </c>
+      <c r="F36" s="10">
+        <v>4.3581250100000002</v>
+      </c>
+      <c r="G36" s="10">
+        <v>10.1540824</v>
+      </c>
+      <c r="H36" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I36" s="10">
+        <v>56.188124700000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C37" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.86751199999999995</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.89728125000000003</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.34923880000000002</v>
+      </c>
+      <c r="H37" s="10">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="I37" s="10">
+        <v>1.7270667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>7</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2.0386920000000002</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>9.6606558000000007</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>75.971101599999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11">
+        <v>5.1847969999999997</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.1875</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.69899500000000003</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>9</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="11">
+        <v>42.145159999999997</v>
+      </c>
+      <c r="F40" s="10">
+        <v>42.0625</v>
+      </c>
+      <c r="G40" s="10">
+        <v>4.6498362999999996</v>
+      </c>
+      <c r="H40" s="10">
+        <v>30.8125</v>
+      </c>
+      <c r="I40" s="10">
+        <v>56.375</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1.240507</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.1231366</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>11</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="11">
+        <v>4.5636419999999998</v>
+      </c>
+      <c r="F42" s="10">
+        <v>4.5625</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.68076729999999996</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2.3125</v>
+      </c>
+      <c r="I42" s="10">
+        <v>7.0625</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>12</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1.097872</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.29688189999999998</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
         <v>13</v>
       </c>
-      <c r="E32" s="5">
-        <v>2.7538110000000001E-5</v>
-      </c>
-      <c r="F32" s="5">
-        <v>-1.8276230000000001E-2</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.3456514</v>
-      </c>
-      <c r="H32" s="5">
-        <v>-0.82752614999999996</v>
-      </c>
-      <c r="I32" s="5">
-        <v>1.0495977000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+      <c r="C44" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="11">
+        <v>3.339553</v>
+      </c>
+      <c r="F45" s="10">
+        <v>3.4061849199999998</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.39098090000000002</v>
+      </c>
+      <c r="H45" s="10">
+        <v>2.3978952699999998</v>
+      </c>
+      <c r="I45" s="10">
+        <v>5.1929569000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <v>15</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="11">
+        <v>3.8651040000000001</v>
+      </c>
+      <c r="F46" s="10">
+        <v>3.8580944499999998</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.20881839999999999</v>
+      </c>
+      <c r="H46" s="10">
+        <v>3.2325321499999999</v>
+      </c>
+      <c r="I46" s="10">
+        <v>4.5268706999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
+        <v>16</v>
+      </c>
+      <c r="C47" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="11">
+        <v>23.76042</v>
+      </c>
+      <c r="F47" s="10">
+        <v>21</v>
+      </c>
+      <c r="G47" s="10">
+        <v>8.1373409999999993</v>
+      </c>
+      <c r="H47" s="10">
+        <v>10</v>
+      </c>
+      <c r="I47" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>17</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.60486890000000004</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.59970540000000006</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>18</v>
+      </c>
+      <c r="C49" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.2789008</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.43865670000000001</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>19</v>
+      </c>
+      <c r="C50" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.36314829999999998</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.48750001999999998</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.2512394</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>20</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1.002542</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.98790876999999999</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.17665520000000001</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.57256381999999995</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1.5795357000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>21</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="11">
+        <v>3.6793640000000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2.875</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3.0450853000000002</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>22</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.3592766</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.2906726</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>23</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-1.629688E-2</v>
+      </c>
+      <c r="F54" s="10">
+        <v>-0.30085679999999998</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.54277980000000003</v>
+      </c>
+      <c r="H54" s="10">
+        <v>-0.30085777000000002</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2.9415586</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
+        <v>24</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.26671149999999999</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.25412868999999999</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.1623829</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7">
+        <v>25</v>
+      </c>
+      <c r="C56" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="11">
+        <v>53.362749999999998</v>
+      </c>
+      <c r="F56" s="10">
+        <v>51</v>
+      </c>
+      <c r="G56" s="10">
+        <v>13.2592856</v>
+      </c>
+      <c r="H56" s="10">
+        <v>30</v>
+      </c>
+      <c r="I56" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="7">
+        <v>26</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="11">
+        <v>7.8090229999999998</v>
+      </c>
+      <c r="F57" s="10">
+        <v>6.2356979399999997</v>
+      </c>
+      <c r="G57" s="10">
+        <v>5.0446343999999996</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="I57" s="10">
+        <v>32.888888899999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
+        <v>27</v>
+      </c>
+      <c r="C58" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="11">
+        <v>7.6761220000000003</v>
+      </c>
+      <c r="F58" s="10">
+        <v>4.1825396799999996</v>
+      </c>
+      <c r="G58" s="10">
+        <v>8.3997425000000003</v>
+      </c>
+      <c r="H58" s="10">
+        <v>5.5555559999999997E-2</v>
+      </c>
+      <c r="I58" s="10">
+        <v>44.681818200000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
+        <v>28</v>
+      </c>
+      <c r="C59" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.93521480000000001</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1.0195789500000001</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0.28645039999999999</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0.11705881999999999</v>
+      </c>
+      <c r="I59" s="10">
+        <v>1.55125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
+        <v>29</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.1053489999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>7.3369925</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>69.151984799999994</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>30</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="11">
+        <v>5.5546790000000001</v>
+      </c>
+      <c r="F61" s="10">
+        <v>5.55</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.57015210000000005</v>
+      </c>
+      <c r="H61" s="10">
+        <v>4.0952381000000004</v>
+      </c>
+      <c r="I61" s="10">
+        <v>6.8571429000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>31</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="11">
+        <v>42.562280000000001</v>
+      </c>
+      <c r="F62" s="10">
+        <v>42.368421050000002</v>
+      </c>
+      <c r="G62" s="10">
+        <v>4.0552007999999997</v>
+      </c>
+      <c r="H62" s="10">
+        <v>33.625</v>
+      </c>
+      <c r="I62" s="10">
+        <v>56.1875</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>32</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1.232086</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1.2222222199999999</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0.1045117</v>
+      </c>
+      <c r="H63" s="10">
+        <v>1</v>
+      </c>
+      <c r="I63" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>33</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="11">
+        <v>4.9969099999999997</v>
+      </c>
+      <c r="F64" s="10">
+        <v>4.8947368400000002</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.71720759999999995</v>
+      </c>
+      <c r="H64" s="10">
+        <v>3.5789473699999999</v>
+      </c>
+      <c r="I64" s="10">
+        <v>7.5263157999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="7">
+        <v>34</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1.122201</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0.25717489999999998</v>
+      </c>
+      <c r="H65" s="10">
+        <v>1</v>
+      </c>
+      <c r="I65" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.46362890000000001</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0.49468085000000001</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.28720899999999999</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="5">
-        <v>45.015630000000002</v>
-      </c>
-      <c r="F34" s="5">
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="7">
+        <v>35</v>
+      </c>
+      <c r="C66" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1.067291</v>
+      </c>
+      <c r="F66" s="10">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.2197076</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1</v>
+      </c>
+      <c r="I66" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="7">
+        <v>36</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="11">
+        <v>4.4648630000000002</v>
+      </c>
+      <c r="F67" s="10">
+        <v>4.4954655499999996</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.26033279999999998</v>
+      </c>
+      <c r="H67" s="10">
+        <v>2.7725887199999999</v>
+      </c>
+      <c r="I67" s="10">
+        <v>5.0499501000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7">
+        <v>37</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="11">
+        <v>3.9584540000000001</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3.9465991300000001</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.18031440000000001</v>
+      </c>
+      <c r="H68" s="10">
+        <v>3.4508226199999998</v>
+      </c>
+      <c r="I68" s="10">
+        <v>4.4939593000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="7">
+        <v>38</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="11">
+        <v>24.299019999999999</v>
+      </c>
+      <c r="F69" s="10">
+        <v>24</v>
+      </c>
+      <c r="G69" s="10">
+        <v>6.7498439000000001</v>
+      </c>
+      <c r="H69" s="10">
+        <v>12</v>
+      </c>
+      <c r="I69" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="7">
+        <v>39</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0.93726659999999995</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.70294118000000005</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0.71083830000000003</v>
+      </c>
+      <c r="H70" s="10">
+        <v>4.5454550000000003E-2</v>
+      </c>
+      <c r="I70" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="7">
+        <v>40</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0.25977860000000003</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0.38054290000000002</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="7">
         <v>41</v>
       </c>
-      <c r="G34" s="5">
-        <v>10.248783599999999</v>
-      </c>
-      <c r="H34" s="5">
-        <v>3</v>
-      </c>
-      <c r="I34" s="5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="5">
-        <v>8.0577330000000007</v>
-      </c>
-      <c r="F35" s="5">
-        <v>6.5590624999999996</v>
-      </c>
-      <c r="G35" s="5">
-        <v>5.7724744000000001</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0.37692308000000002</v>
-      </c>
-      <c r="I35" s="5">
-        <v>37.320000200000003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="9">
-        <v>5</v>
-      </c>
-      <c r="C36" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="5">
-        <v>8.3656520000000008</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4.3581250100000002</v>
-      </c>
-      <c r="G36" s="5">
-        <v>10.1540824</v>
-      </c>
-      <c r="H36" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I36" s="5">
-        <v>56.188124700000003</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
-        <v>6</v>
-      </c>
-      <c r="C37" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0.86751199999999995</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.89728125000000003</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0.34923880000000002</v>
-      </c>
-      <c r="H37" s="5">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.7270667</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9">
-        <v>7</v>
-      </c>
-      <c r="C38" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5">
-        <v>970.60440000000006</v>
-      </c>
-      <c r="F38" s="5">
-        <v>942.96251572000006</v>
-      </c>
-      <c r="G38" s="5">
-        <v>174.78012720000001</v>
-      </c>
-      <c r="H38" s="5">
-        <v>554.70403679000003</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1681.6676633</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9">
-        <v>8</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5">
-        <v>5.1847969999999997</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5.1875</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.69899500000000003</v>
-      </c>
-      <c r="H39" s="5">
-        <v>3</v>
-      </c>
-      <c r="I39" s="5">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9">
-        <v>9</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="5">
-        <v>42.145159999999997</v>
-      </c>
-      <c r="F40" s="5">
-        <v>42.0625</v>
-      </c>
-      <c r="G40" s="5">
-        <v>4.6498362999999996</v>
-      </c>
-      <c r="H40" s="5">
-        <v>30.8125</v>
-      </c>
-      <c r="I40" s="5">
-        <v>56.375</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9">
-        <v>10</v>
-      </c>
-      <c r="C41" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1.240507</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.1231366</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1.6875</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9">
+      <c r="C72" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.33987640000000002</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.41151316999999998</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0.21891079999999999</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.74666670000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
+        <v>42</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0.93404549999999997</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.89719821</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0.16569809999999999</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0.59499267</v>
+      </c>
+      <c r="I73" s="10">
+        <v>1.5755759</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="7">
+        <v>43</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="5">
-        <v>4.5636419999999998</v>
-      </c>
-      <c r="F42" s="5">
-        <v>4.5625</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.68076729999999996</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2.3125</v>
-      </c>
-      <c r="I42" s="5">
-        <v>7.0625</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9">
-        <v>12</v>
-      </c>
-      <c r="C43" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1.097872</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.29688189999999998</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9">
-        <v>13</v>
-      </c>
-      <c r="C44" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9">
-        <v>14</v>
-      </c>
-      <c r="C45" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3.339553</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.4061849199999998</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0.39098090000000002</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2.3978952699999998</v>
-      </c>
-      <c r="I45" s="5">
-        <v>5.1929569000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="5">
-        <v>3.8651040000000001</v>
-      </c>
-      <c r="F46" s="5">
-        <v>3.8580944499999998</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.20881839999999999</v>
-      </c>
-      <c r="H46" s="5">
-        <v>3.2325321499999999</v>
-      </c>
-      <c r="I46" s="5">
-        <v>4.5268706999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9">
-        <v>16</v>
-      </c>
-      <c r="C47" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="5">
-        <v>122.77079999999999</v>
-      </c>
-      <c r="F47" s="5">
-        <v>123</v>
-      </c>
-      <c r="G47" s="5">
-        <v>13.498740400000001</v>
-      </c>
-      <c r="H47" s="5">
-        <v>84</v>
-      </c>
-      <c r="I47" s="5">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9">
-        <v>17</v>
-      </c>
-      <c r="C48" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.60486890000000004</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.59970540000000006</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9">
-        <v>18</v>
-      </c>
-      <c r="C49" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.2789008</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.43865670000000001</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9">
-        <v>19</v>
-      </c>
-      <c r="C50" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0.36314829999999998</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0.48750001999999998</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.2512394</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9">
-        <v>20</v>
-      </c>
-      <c r="C51" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1.002542</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0.98790876999999999</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0.17665520000000001</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0.57256381999999995</v>
-      </c>
-      <c r="I51" s="5">
-        <v>1.5795357000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="9">
-        <v>21</v>
-      </c>
-      <c r="C52" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="5">
-        <v>3.6793640000000001</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2.875</v>
-      </c>
-      <c r="G52" s="5">
-        <v>3.0450853000000002</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9">
-        <v>22</v>
-      </c>
-      <c r="C53" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="E74" s="11">
+        <v>4.2635839999999998</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3.70108696</v>
+      </c>
+      <c r="G74" s="10">
+        <v>2.6606480000000001</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>16.277777799999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="7">
+        <v>44</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2013</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="5">
-        <v>0.3592766</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.2906726</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="9">
-        <v>23</v>
-      </c>
-      <c r="C54" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="5">
-        <v>-1.629688E-2</v>
-      </c>
-      <c r="F54" s="5">
-        <v>-0.30085679999999998</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.54277980000000003</v>
-      </c>
-      <c r="H54" s="5">
-        <v>-0.30085777000000002</v>
-      </c>
-      <c r="I54" s="5">
-        <v>2.9415586</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="9">
-        <v>24</v>
-      </c>
-      <c r="C55" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0.26671149999999999</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0.25412868999999999</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.1623829</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="9">
-        <v>25</v>
-      </c>
-      <c r="C56" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="5">
-        <v>53.362749999999998</v>
-      </c>
-      <c r="F56" s="5">
-        <v>51</v>
-      </c>
-      <c r="G56" s="5">
-        <v>13.2592856</v>
-      </c>
-      <c r="H56" s="5">
-        <v>30</v>
-      </c>
-      <c r="I56" s="5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="9">
-        <v>26</v>
-      </c>
-      <c r="C57" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="5">
-        <v>7.8090229999999998</v>
-      </c>
-      <c r="F57" s="5">
-        <v>6.2356979399999997</v>
-      </c>
-      <c r="G57" s="5">
-        <v>5.0446343999999996</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="I57" s="5">
-        <v>32.888888899999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="9">
-        <v>27</v>
-      </c>
-      <c r="C58" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="5">
-        <v>7.6761220000000003</v>
-      </c>
-      <c r="F58" s="5">
-        <v>4.1825396799999996</v>
-      </c>
-      <c r="G58" s="5">
-        <v>8.3997425000000003</v>
-      </c>
-      <c r="H58" s="5">
-        <v>5.5555559999999997E-2</v>
-      </c>
-      <c r="I58" s="5">
-        <v>44.681818200000002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="9">
-        <v>28</v>
-      </c>
-      <c r="C59" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0.93521480000000001</v>
-      </c>
-      <c r="F59" s="5">
-        <v>1.0195789500000001</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.28645039999999999</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0.11705881999999999</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1.55125</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="9">
-        <v>29</v>
-      </c>
-      <c r="C60" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="5">
-        <v>943.19179999999994</v>
-      </c>
-      <c r="F60" s="5">
-        <v>888.15042192999999</v>
-      </c>
-      <c r="G60" s="5">
-        <v>173.7311349</v>
-      </c>
-      <c r="H60" s="5">
-        <v>647.19569137999997</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1681.5369284999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="9">
-        <v>30</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="5">
-        <v>5.5546790000000001</v>
-      </c>
-      <c r="F61" s="5">
-        <v>5.55</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0.57015210000000005</v>
-      </c>
-      <c r="H61" s="5">
-        <v>4.0952381000000004</v>
-      </c>
-      <c r="I61" s="5">
-        <v>6.8571429000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="9">
-        <v>31</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5">
-        <v>42.562280000000001</v>
-      </c>
-      <c r="F62" s="5">
-        <v>42.368421050000002</v>
-      </c>
-      <c r="G62" s="5">
-        <v>4.0552007999999997</v>
-      </c>
-      <c r="H62" s="5">
-        <v>33.625</v>
-      </c>
-      <c r="I62" s="5">
-        <v>56.1875</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="9">
-        <v>32</v>
-      </c>
-      <c r="C63" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1.232086</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1.2222222199999999</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0.1045117</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="9">
-        <v>33</v>
-      </c>
-      <c r="C64" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="5">
-        <v>4.9969099999999997</v>
-      </c>
-      <c r="F64" s="5">
-        <v>4.8947368400000002</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0.71720759999999995</v>
-      </c>
-      <c r="H64" s="5">
-        <v>3.5789473699999999</v>
-      </c>
-      <c r="I64" s="5">
-        <v>7.5263157999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="9">
-        <v>34</v>
-      </c>
-      <c r="C65" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1.122201</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0.25717489999999998</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="9">
-        <v>35</v>
-      </c>
-      <c r="C66" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1.067291</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0.2197076</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="I66" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="9">
-        <v>36</v>
-      </c>
-      <c r="C67" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="5">
-        <v>4.4648630000000002</v>
-      </c>
-      <c r="F67" s="5">
-        <v>4.4954655499999996</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0.26033279999999998</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2.7725887199999999</v>
-      </c>
-      <c r="I67" s="5">
-        <v>5.0499501000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="9">
-        <v>37</v>
-      </c>
-      <c r="C68" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5">
-        <v>3.9584540000000001</v>
-      </c>
-      <c r="F68" s="5">
-        <v>3.9465991300000001</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0.18031440000000001</v>
-      </c>
-      <c r="H68" s="5">
-        <v>3.4508226199999998</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4.4939593000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="9">
-        <v>38</v>
-      </c>
-      <c r="C69" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="5">
-        <v>123.64709999999999</v>
-      </c>
-      <c r="F69" s="5">
-        <v>123</v>
-      </c>
-      <c r="G69" s="5">
-        <v>10.7186565</v>
-      </c>
-      <c r="H69" s="5">
-        <v>99</v>
-      </c>
-      <c r="I69" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="9">
-        <v>39</v>
-      </c>
-      <c r="C70" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.93726659999999995</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0.70294118000000005</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0.71083830000000003</v>
-      </c>
-      <c r="H70" s="5">
-        <v>4.5454550000000003E-2</v>
-      </c>
-      <c r="I70" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="9">
-        <v>40</v>
-      </c>
-      <c r="C71" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0.25977860000000003</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0.38054290000000002</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="9">
-        <v>41</v>
-      </c>
-      <c r="C72" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0.33987640000000002</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0.41151316999999998</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0.21891079999999999</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5">
-        <v>0.74666670000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="9">
-        <v>42</v>
-      </c>
-      <c r="C73" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0.93404549999999997</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0.89719821</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0.16569809999999999</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0.59499267</v>
-      </c>
-      <c r="I73" s="5">
-        <v>1.5755759</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="9">
-        <v>43</v>
-      </c>
-      <c r="C74" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5">
-        <v>4.2635839999999998</v>
-      </c>
-      <c r="F74" s="5">
-        <v>3.70108696</v>
-      </c>
-      <c r="G74" s="5">
-        <v>2.6606480000000001</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5">
-        <v>16.277777799999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="9">
-        <v>44</v>
-      </c>
-      <c r="C75" s="10">
-        <v>2013</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="5">
+      <c r="E75" s="11">
         <v>0.45877449999999997</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="10">
         <v>0.39565217000000003</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="10">
         <v>0.27426149999999999</v>
       </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output/table/table1.xlsx
+++ b/output/table/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\WD-Early-Warning-Food-Insecurity\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C2F70-ABCC-4E99-A9C3-BD6946B46B1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C43E32-4E05-40B7-B7D9-297F6132A18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{766D3772-C555-4403-8359-ED44F90AADC2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="47">
   <si>
     <t>FS_year</t>
   </si>
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,12 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -338,6 +344,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF8C5AC-03D8-41F3-A719-2E252C9B2ABE}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1063,7 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>2010</v>
       </c>
@@ -1088,8 +1106,44 @@
       <c r="N1" s="5">
         <v>4.4939593000000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="5">
+        <v>2.7538110000000001E-5</v>
+      </c>
+      <c r="T1" s="5">
+        <v>-1.8276230000000001E-2</v>
+      </c>
+      <c r="U1" s="5">
+        <v>0.3456514</v>
+      </c>
+      <c r="V1" s="5">
+        <v>-0.82752614999999996</v>
+      </c>
+      <c r="W1" s="5">
+        <v>1.0495977000000001</v>
+      </c>
+      <c r="X1" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>-1.629688E-2</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>-0.30085679999999998</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>0.54277980000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2010</v>
       </c>
@@ -1132,8 +1186,44 @@
       <c r="N2" s="5">
         <v>16.277778000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.46362890000000001</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.49468085000000001</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.28720899999999999</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.26671149999999999</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.25412868999999999</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.1623829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2010</v>
       </c>
@@ -1176,8 +1266,44 @@
       <c r="N3" s="5">
         <v>6.8571429999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>45.015630000000002</v>
+      </c>
+      <c r="T3" s="5">
+        <v>41</v>
+      </c>
+      <c r="U3" s="5">
+        <v>10.248783599999999</v>
+      </c>
+      <c r="V3" s="5">
+        <v>3</v>
+      </c>
+      <c r="W3" s="5">
+        <v>72</v>
+      </c>
+      <c r="X3" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>53.362749999999998</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>13.2592856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2010</v>
       </c>
@@ -1220,8 +1346,44 @@
       <c r="N4" s="5">
         <v>1.5755760000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="5">
+        <v>8.0577330000000007</v>
+      </c>
+      <c r="T4" s="5">
+        <v>6.5590624999999996</v>
+      </c>
+      <c r="U4" s="5">
+        <v>5.7724744000000001</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.37692308000000002</v>
+      </c>
+      <c r="W4" s="5">
+        <v>37.320000200000003</v>
+      </c>
+      <c r="X4" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>7.8090229999999998</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>6.2356979399999997</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>5.0446343999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2010</v>
       </c>
@@ -1264,8 +1426,44 @@
       <c r="N5" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="5">
+        <v>8.3656520000000008</v>
+      </c>
+      <c r="T5" s="5">
+        <v>4.3581250100000002</v>
+      </c>
+      <c r="U5" s="5">
+        <v>10.1540824</v>
+      </c>
+      <c r="V5" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W5" s="5">
+        <v>56.188124700000003</v>
+      </c>
+      <c r="X5" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>7.6761220000000003</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>4.1825396799999996</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>8.3997425000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -1308,8 +1506,44 @@
       <c r="N6" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.86751199999999995</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.89728125000000003</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.34923880000000002</v>
+      </c>
+      <c r="V6" s="5">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1.7270667</v>
+      </c>
+      <c r="X6" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.93521480000000001</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1.0195789500000001</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.28645039999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2010</v>
       </c>
@@ -1352,8 +1586,44 @@
       <c r="N7" s="5">
         <v>69.151984799999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2.0386920000000002</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>9.6606558000000007</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>75.971101599999997</v>
+      </c>
+      <c r="X7" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1.1053489999999999</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>7.3369925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2010</v>
       </c>
@@ -1396,8 +1666,44 @@
       <c r="N8" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5.1847969999999997</v>
+      </c>
+      <c r="T8" s="5">
+        <v>5.1875</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.69899500000000003</v>
+      </c>
+      <c r="V8" s="5">
+        <v>3</v>
+      </c>
+      <c r="W8" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="X8" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>5.5546790000000001</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.57015210000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2010</v>
       </c>
@@ -1440,8 +1746,44 @@
       <c r="N9" s="5">
         <v>5.0499499999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="5">
+        <v>42.145159999999997</v>
+      </c>
+      <c r="T9" s="5">
+        <v>42.0625</v>
+      </c>
+      <c r="U9" s="5">
+        <v>4.6498362999999996</v>
+      </c>
+      <c r="V9" s="5">
+        <v>30.8125</v>
+      </c>
+      <c r="W9" s="5">
+        <v>56.375</v>
+      </c>
+      <c r="X9" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>42.562280000000001</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>42.368421050000002</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>4.0552007999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
@@ -1481,8 +1823,44 @@
       <c r="N10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1.240507</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.1231366</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1.6875</v>
+      </c>
+      <c r="X10" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1.232086</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1.2222222199999999</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.1045117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2010</v>
       </c>
@@ -1525,8 +1903,44 @@
       <c r="N11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="5">
+        <v>4.5636419999999998</v>
+      </c>
+      <c r="T11" s="5">
+        <v>4.5625</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.68076729999999996</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2.3125</v>
+      </c>
+      <c r="W11" s="5">
+        <v>7.0625</v>
+      </c>
+      <c r="X11" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>4.9969099999999997</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>4.8947368400000002</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.71720759999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2010</v>
       </c>
@@ -1569,8 +1983,44 @@
       <c r="N12" s="5">
         <v>7.5263159999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1.165543</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.39899879999999999</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>3</v>
+      </c>
+      <c r="X12" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>1.0817239999999999</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0.2212363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2010</v>
       </c>
@@ -1613,8 +2063,44 @@
       <c r="N13" s="5">
         <v>56.1875</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1.065404</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.24745120000000001</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1.09331</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0.26884140000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2010</v>
       </c>
@@ -1657,8 +2143,44 @@
       <c r="N14" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="5">
+        <v>3.339553</v>
+      </c>
+      <c r="T14" s="5">
+        <v>3.4061849199999998</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0.39098090000000002</v>
+      </c>
+      <c r="V14" s="5">
+        <v>2.3978952699999998</v>
+      </c>
+      <c r="W14" s="5">
+        <v>5.1929569000000004</v>
+      </c>
+      <c r="X14" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>4.4648630000000002</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>4.4954655499999996</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0.26033279999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2010</v>
       </c>
@@ -1701,8 +2223,44 @@
       <c r="N15" s="5">
         <v>2.9415589999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5">
+        <v>3.8651040000000001</v>
+      </c>
+      <c r="T15" s="5">
+        <v>3.8580944499999998</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.20881839999999999</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3.2325321499999999</v>
+      </c>
+      <c r="W15" s="5">
+        <v>4.5268706999999999</v>
+      </c>
+      <c r="X15" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>3.9584540000000001</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>3.9465991300000001</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0.18031440000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2010</v>
       </c>
@@ -1745,8 +2303,44 @@
       <c r="N16" s="5">
         <v>44.681818</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="5">
+        <v>23.76042</v>
+      </c>
+      <c r="T16" s="5">
+        <v>21</v>
+      </c>
+      <c r="U16" s="5">
+        <v>8.1373409999999993</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10</v>
+      </c>
+      <c r="W16" s="5">
+        <v>52</v>
+      </c>
+      <c r="X16" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>24.299019999999999</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>6.7498439000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2010</v>
       </c>
@@ -1789,8 +2383,44 @@
       <c r="N17" s="5">
         <v>32.888888999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.60486890000000004</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0.59970540000000006</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>4.125</v>
+      </c>
+      <c r="X17" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.93726659999999995</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.70294118000000005</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0.71083830000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2010</v>
       </c>
@@ -1833,8 +2463,44 @@
       <c r="N18" s="5">
         <v>0.74666670000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.2789008</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0.43865670000000001</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.25977860000000003</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0.38054290000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2010</v>
       </c>
@@ -1877,8 +2543,44 @@
       <c r="N19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.36314829999999998</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.48750001999999998</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.2512394</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.33987640000000002</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.41151316999999998</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0.21891079999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2010</v>
       </c>
@@ -1921,8 +2623,44 @@
       <c r="N20" s="5">
         <v>1.55125</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1.002542</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.98790876999999999</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0.17665520000000001</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0.57256381999999995</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1.5795357000000001</v>
+      </c>
+      <c r="X20" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.93404549999999997</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.89719821</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0.16569809999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2010</v>
       </c>
@@ -1965,8 +2703,44 @@
       <c r="N21" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="5">
+        <v>3.6793640000000001</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2.875</v>
+      </c>
+      <c r="U21" s="5">
+        <v>3.0450853000000002</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>17.25</v>
+      </c>
+      <c r="X21" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>4.2635839999999998</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>3.70108696</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>2.6606480000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2010</v>
       </c>
@@ -2009,11 +2783,47 @@
       <c r="N22" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.3592766</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.2906726</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1</v>
+      </c>
+      <c r="X22" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Y22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.45877449999999997</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.39565217000000003</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0.27426149999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="9"/>
       <c r="D30" s="12" t="s">
@@ -2035,7 +2845,7 @@
         <v>1.0495977000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="10">
         <v>2010</v>
       </c>
@@ -2045,11 +2855,38 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>2</v>
       </c>
@@ -2074,8 +2911,15 @@
       <c r="I33" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="7"/>
+      <c r="AB33" s="5">
+        <v>-0.30085777000000002</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>2.9415586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>3</v>
       </c>
@@ -2100,8 +2944,15 @@
       <c r="I34" s="10">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="7"/>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>4</v>
       </c>
@@ -2126,8 +2977,15 @@
       <c r="I35" s="10">
         <v>37.320000200000003</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="7"/>
+      <c r="AB35" s="5">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>5</v>
       </c>
@@ -2152,8 +3010,15 @@
       <c r="I36" s="10">
         <v>56.188124700000003</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="7"/>
+      <c r="AB36" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>32.888888899999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>6</v>
       </c>
@@ -2178,8 +3043,15 @@
       <c r="I37" s="10">
         <v>1.7270667</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="7"/>
+      <c r="AB37" s="5">
+        <v>5.5555559999999997E-2</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>44.681818200000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>7</v>
       </c>
@@ -2204,8 +3076,15 @@
       <c r="I38" s="10">
         <v>75.971101599999997</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="7"/>
+      <c r="AB38" s="5">
+        <v>0.11705881999999999</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>1.55125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>8</v>
       </c>
@@ -2230,8 +3109,15 @@
       <c r="I39" s="10">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="7"/>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>69.151984799999994</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>9</v>
       </c>
@@ -2256,8 +3142,15 @@
       <c r="I40" s="10">
         <v>56.375</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="7"/>
+      <c r="AB40" s="5">
+        <v>4.0952381000000004</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>6.8571429000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>10</v>
       </c>
@@ -2282,8 +3175,15 @@
       <c r="I41" s="10">
         <v>1.6875</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O41" s="7"/>
+      <c r="AB41" s="5">
+        <v>33.625</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>56.1875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>11</v>
       </c>
@@ -2308,8 +3208,15 @@
       <c r="I42" s="10">
         <v>7.0625</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="7"/>
+      <c r="AB42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>12</v>
       </c>
@@ -2334,8 +3241,15 @@
       <c r="I43" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="7"/>
+      <c r="AB43" s="5">
+        <v>3.5789473699999999</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>7.5263157999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>13</v>
       </c>
@@ -2360,8 +3274,15 @@
       <c r="I44" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O44" s="7"/>
+      <c r="AB44" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>2.4736842000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>14</v>
       </c>
@@ -2386,8 +3307,15 @@
       <c r="I45" s="10">
         <v>5.1929569000000004</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O45" s="7"/>
+      <c r="AB45" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>15</v>
       </c>
@@ -2412,8 +3340,15 @@
       <c r="I46" s="10">
         <v>4.5268706999999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="7"/>
+      <c r="AB46" s="5">
+        <v>2.7725887199999999</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>5.0499501000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>16</v>
       </c>
@@ -2438,8 +3373,15 @@
       <c r="I47" s="10">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="7"/>
+      <c r="AB47" s="5">
+        <v>3.4508226199999998</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>4.4939593000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>17</v>
       </c>
@@ -2464,8 +3406,15 @@
       <c r="I48" s="10">
         <v>4.125</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="7"/>
+      <c r="AB48" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>18</v>
       </c>
@@ -2490,8 +3439,15 @@
       <c r="I49" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O49" s="7"/>
+      <c r="AB49" s="5">
+        <v>4.5454550000000003E-2</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7">
         <v>19</v>
       </c>
@@ -2516,8 +3472,15 @@
       <c r="I50" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="7"/>
+      <c r="AB50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>20</v>
       </c>
@@ -2542,8 +3505,15 @@
       <c r="I51" s="10">
         <v>1.5795357000000001</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O51" s="7"/>
+      <c r="AB51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>0.74666670000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>21</v>
       </c>
@@ -2568,8 +3538,15 @@
       <c r="I52" s="10">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O52" s="7"/>
+      <c r="AB52" s="5">
+        <v>0.59499267</v>
+      </c>
+      <c r="AC52" s="5">
+        <v>1.5755759</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>22</v>
       </c>
@@ -2594,8 +3571,15 @@
       <c r="I53" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O53" s="7"/>
+      <c r="AB53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>16.277777799999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>23</v>
       </c>
@@ -2620,8 +3604,15 @@
       <c r="I54" s="10">
         <v>2.9415586</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O54" s="7"/>
+      <c r="AB54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>24</v>
       </c>
@@ -2646,8 +3637,9 @@
       <c r="I55" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <v>25</v>
       </c>
@@ -2672,8 +3664,9 @@
       <c r="I56" s="10">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <v>26</v>
       </c>
@@ -2698,8 +3691,9 @@
       <c r="I57" s="10">
         <v>32.888888899999998</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <v>27</v>
       </c>
@@ -2724,8 +3718,9 @@
       <c r="I58" s="10">
         <v>44.681818200000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <v>28</v>
       </c>
@@ -2750,8 +3745,9 @@
       <c r="I59" s="10">
         <v>1.55125</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <v>29</v>
       </c>
@@ -2776,8 +3772,9 @@
       <c r="I60" s="10">
         <v>69.151984799999994</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <v>30</v>
       </c>
@@ -2802,8 +3799,9 @@
       <c r="I61" s="10">
         <v>6.8571429000000004</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>31</v>
       </c>
@@ -2828,8 +3826,9 @@
       <c r="I62" s="10">
         <v>56.1875</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <v>32</v>
       </c>
@@ -2854,8 +3853,9 @@
       <c r="I63" s="10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <v>33</v>
       </c>
@@ -2880,8 +3880,9 @@
       <c r="I64" s="10">
         <v>7.5263157999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <v>34</v>
       </c>
@@ -2906,8 +3907,9 @@
       <c r="I65" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <v>35</v>
       </c>
@@ -2932,8 +3934,9 @@
       <c r="I66" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <v>36</v>
       </c>
@@ -2958,8 +3961,9 @@
       <c r="I67" s="10">
         <v>5.0499501000000002</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <v>37</v>
       </c>
@@ -2984,8 +3988,9 @@
       <c r="I68" s="10">
         <v>4.4939593000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <v>38</v>
       </c>
@@ -3010,8 +4015,9 @@
       <c r="I69" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <v>39</v>
       </c>
@@ -3036,8 +4042,9 @@
       <c r="I70" s="10">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7">
         <v>40</v>
       </c>
@@ -3062,8 +4069,9 @@
       <c r="I71" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <v>41</v>
       </c>
@@ -3088,8 +4096,9 @@
       <c r="I72" s="10">
         <v>0.74666670000000002</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
         <v>42</v>
       </c>
@@ -3114,8 +4123,9 @@
       <c r="I73" s="10">
         <v>1.5755759</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <v>43</v>
       </c>
@@ -3140,8 +4150,9 @@
       <c r="I74" s="10">
         <v>16.277777799999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
         <v>44</v>
       </c>
@@ -3166,15 +4177,19 @@
       <c r="I75" s="10">
         <v>1</v>
       </c>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
